--- a/project1/data_structures.xlsx
+++ b/project1/data_structures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\TXSTATE UNI\Fall 2022\Artificial Intelligence\Projects\artificial_intelligence\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A643FA22-6545-4385-A143-410C349B9B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE21C824-A954-46D4-9D19-9C99B963A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FDAD4B7-6A52-43B5-89AE-0D674C76519E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="210">
   <si>
     <t>Variable Name</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Is the drive belt worn or stretched?</t>
   </si>
   <si>
-    <t>Does the radiator look to be in good or bad shape?</t>
-  </si>
-  <si>
     <t>RADIATOR_FAN</t>
   </si>
   <si>
@@ -318,6 +315,357 @@
   </si>
   <si>
     <t>2, 57, 58, 31, 59, 60, 61, 62, 63, 64, 72, 73, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 66, 74, 80, 81, 49, 68, 76, 82, 83, 51, 70, 78, 79, 53, 54, 55, 56</t>
+  </si>
+  <si>
+    <t>Variable name table</t>
+  </si>
+  <si>
+    <t>If-Then rules</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>1, 3, 11, 30, 57</t>
+  </si>
+  <si>
+    <t>1, 3, 11, 30, 58</t>
+  </si>
+  <si>
+    <t>1, 3, 11, 31</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND OIL_PRESSURE = YES AND OIL_GRADE = YES AND OIL_FILTER = YES</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND OIL_PRESSURE = YES AND OIL_GRADE = YES AND OIL_FILTER = NO</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND OIL_PRESSURE = YES AND OIL_GRADE = NO</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = NO</t>
+  </si>
+  <si>
+    <t>THEN PART  = OIL FILTER</t>
+  </si>
+  <si>
+    <t>THEN PART  = OIL</t>
+  </si>
+  <si>
+    <t>THEN PART = NONE</t>
+  </si>
+  <si>
+    <t>THEN PART = OIL PUMP</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND LEAK = YES AND OIL_LEAK = YES AND OIL_DRAIN_PLUG = YES</t>
+  </si>
+  <si>
+    <t>THEN PART = OIL DRAIN PLUG</t>
+  </si>
+  <si>
+    <t>1, 4, 12, 32, 59</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND LEAK = YES AND OIL_LEAK = YES AND ENGINE_LEAK = YES</t>
+  </si>
+  <si>
+    <t>THEN PART = ENGINE GASKET</t>
+  </si>
+  <si>
+    <t>1, 4, 12, 33, 60</t>
+  </si>
+  <si>
+    <t>THEN PART = RADIATOR</t>
+  </si>
+  <si>
+    <t>1, 4, 13, 34, 61</t>
+  </si>
+  <si>
+    <t>1, 4, 13, 35, 62</t>
+  </si>
+  <si>
+    <t>THEN PART = RADIATOR HOSE</t>
+  </si>
+  <si>
+    <t>IF PROBLEM =  YES AND LEAK = YES AND COOLANT_LEAK = YES AND RADIATOR_LEAK = YES</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND LEAK =  YES AND COOLANT_LEAK = YES AND RADIATOR_HOSE = YES</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND LEAK = YES AND TRANS_LEAK = YES AND TRANS_DRAIN_PLUG = YES</t>
+  </si>
+  <si>
+    <t>1, 4, 14, 36, 63</t>
+  </si>
+  <si>
+    <t>THEN PART = TRANSMISSION DRAIN PLUG</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ENGINE_ROTATES = NO AND BATT_TERMINALS = YES AND BATT_VOLTAGE &lt; 12</t>
+  </si>
+  <si>
+    <t>1, 5, 15, 37, 64</t>
+  </si>
+  <si>
+    <t>THEN PART = BATTERY</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ENGINE_ROTATES = NO AND BATT_TERMINALS = YES AND BATT_VOLTAGE &gt; 12 AND START_MOTOR = YES</t>
+  </si>
+  <si>
+    <t>1, 5, 15, 37, 65, 72</t>
+  </si>
+  <si>
+    <t>THEN PART = IGNITION SWITCH</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ENGINE_ROTATES = NO AND BATT_TERMINALS = YES AND BATT_VOLTAGE &gt; 12 AND START_MOTOR = NO</t>
+  </si>
+  <si>
+    <t>1, 5, 15, 37, 65, 73</t>
+  </si>
+  <si>
+    <t>THEN PART = STARTER MOTOR</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ENGINE_ROTATES = NO AND BATT_TERMINALS = NO</t>
+  </si>
+  <si>
+    <t>1, 5, 15, 38</t>
+  </si>
+  <si>
+    <t>THEN PART = BATTERY TERMINALS</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ENGINE_ROTATES = YES AND FUEL = NO</t>
+  </si>
+  <si>
+    <t>1, 5, 16, 39</t>
+  </si>
+  <si>
+    <t>THEN PART = FUEL</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ENGINE_ROTATES = YES AND FUEL = YES</t>
+  </si>
+  <si>
+    <t>1, 5, 16, 40</t>
+  </si>
+  <si>
+    <t>THEN PART = FUEL SYSTEM</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ROUGH = YES AND VACUUM_HOSE = YES</t>
+  </si>
+  <si>
+    <t>1, 6, 17, 41</t>
+  </si>
+  <si>
+    <t>THEN PART = VACUUM HOSE</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ROUGH = YES AND SPARK_PLUGS = YES</t>
+  </si>
+  <si>
+    <t>1, 6, 18, 42</t>
+  </si>
+  <si>
+    <t>THEN PART = SPARK PLUGS</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ROUGH = YES AND BAD_FUEL = YES</t>
+  </si>
+  <si>
+    <t>1, 6, 19, 43</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ROUGH = YES AND FUEL_INJECTORS = YES</t>
+  </si>
+  <si>
+    <t>1, 6, 20, 44</t>
+  </si>
+  <si>
+    <t>THEN PART = FUEL INJECTORS</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ROUGH = YES AND IGNITION_WIRES = YES</t>
+  </si>
+  <si>
+    <t>1, 6, 21, 45</t>
+  </si>
+  <si>
+    <t>THEN PART = IGNITION WIRES</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND ROUGH = YES AND KNOCKING = YES</t>
+  </si>
+  <si>
+    <t>1, 6, 22, 46</t>
+  </si>
+  <si>
+    <t>THEN PART = ENGINE COMPONENTS</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND BATT_CHARGE = NO AND BATT_TEST = NO</t>
+  </si>
+  <si>
+    <t>1, 7, 23, 47</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND BATT_CHARGE = NO AND BATT_TEST = YES AND ALTERNATOR = NO</t>
+  </si>
+  <si>
+    <t>1, 7, 23, 48, 66</t>
+  </si>
+  <si>
+    <t>THEN PART =  ALTERNATOR</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND BATT_CHARGE = NO AND BATT_TEST = YES AND ALTERNATOR = YES AND ALT_DRIVE_BELT = YES</t>
+  </si>
+  <si>
+    <t>1, 7, 23, 48, 67, 74</t>
+  </si>
+  <si>
+    <t>THEN PART = ALTERNATOR DRIVE BELT</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND BATT_CHARGE = NO AND BATT_TEST = YES AND ALTERNATOR = YES AND ALT_DRIVE_BELT = NO AND BATT_WIRES = YES</t>
+  </si>
+  <si>
+    <t>1, 7, 23, 48, 67, 75, 80</t>
+  </si>
+  <si>
+    <t>THEN PART = BATTERY WIRES</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND BATT_CHARGE = NO AND BATT_TEST = YES AND ALTERNATOR = YES AND ALT_DRIVE_BELT = NO AND BATT_WIRES = NO</t>
+  </si>
+  <si>
+    <t>1, 7, 23, 48, 67, 75, 81</t>
+  </si>
+  <si>
+    <t>THEN PART = ELECTRICAL SYSTEM</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND OVERHEAT = YES AND COOLANT = NO</t>
+  </si>
+  <si>
+    <t>1, 8, 24, 49</t>
+  </si>
+  <si>
+    <t>THEN PART = COOLANT</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND OVERHEAT = YES AND COOLANT = YES AND DRIVE_BELT = YES</t>
+  </si>
+  <si>
+    <t>1, 8, 24, 50, 68</t>
+  </si>
+  <si>
+    <t>THEN PART = DRIVE BELT</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND OVERHEAT = YES AND COOLANT = YES AND DRIVE_BELT = NO AND RADIATOR = YES</t>
+  </si>
+  <si>
+    <t>1, 8, 24, 50, 69, 76</t>
+  </si>
+  <si>
+    <t>Does the radiator look dirty or corroded?</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND OVERHEAT = YES AND COOLANT = YES AND DRIVE_BELT = NO AND RADIATOR = NO AND RADIATOR_FAN = NO</t>
+  </si>
+  <si>
+    <t>1, 8, 24, 50, 69, 77, 82</t>
+  </si>
+  <si>
+    <t>THEN PART = RADIATOR FAN</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND OVERHEAT = YES AND COOLANT = YES AND DRIVE_BELT = NO AND RADIATOR = NO AND RADIATOR_FAN = YES</t>
+  </si>
+  <si>
+    <t>1, 8, 24, 50, 69, 77, 83</t>
+  </si>
+  <si>
+    <t>THEN PART = WATER PUMP</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND FUEL_USE = YES AND TIRE_PRESSURE = NO</t>
+  </si>
+  <si>
+    <t>1, 9, 25, 51</t>
+  </si>
+  <si>
+    <t>THEN PART = TIRE PRESSURE</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND FUEL_USE = YES AND TIRE_PRESSURE = YES AND AIR_FILTER = NO</t>
+  </si>
+  <si>
+    <t>1, 9, 25, 52, 70</t>
+  </si>
+  <si>
+    <t>THEN PART = AIR FILTER</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND FUEL_USE = YES AND TIRE_PRESSURE = YES AND AIR_FILTER = YES AND FUEL_SMELL = YES</t>
+  </si>
+  <si>
+    <t>1, 9, 25, 52, 71, 78</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND FUEL_USE = YES AND TIRE_PRESSURE = YES AND AIR_FILTER = YES AND FUEL_SMELL = NO</t>
+  </si>
+  <si>
+    <t>1, 9, 25, 52, 71, 79</t>
+  </si>
+  <si>
+    <t>THEN PART = FUEL MANAGEMENT SYSTEM</t>
+  </si>
+  <si>
+    <t>THEN PART = FUEL TANK</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND CHECK_BRAKE = YES AND WOBBLE = YES</t>
+  </si>
+  <si>
+    <t>1, 10, 26, 53</t>
+  </si>
+  <si>
+    <t>THEN PART = BRAKE PARTS</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND CHECK_BRAKE = YES AND CHEMICAL_SMELL = YES</t>
+  </si>
+  <si>
+    <t>1, 10, 27, 54</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND CHECK_BRAKE = YES AND SPONGEY = YES</t>
+  </si>
+  <si>
+    <t>1, 10, 28, 55</t>
+  </si>
+  <si>
+    <t>IF PROBLEM = YES AND CHECK_BRAKE = YES AND SQUEAK = YES</t>
+  </si>
+  <si>
+    <t>1, 10, 29, 56</t>
+  </si>
+  <si>
+    <t>THEN PART = BRAKE LINES</t>
   </si>
 </sst>
 </file>
@@ -669,522 +1017,1165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61881F8C-F8C7-4282-985C-88E013F6406E}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
         <v>37</v>
-      </c>
-      <c r="C19">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="C36">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
         <v>91</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C47" t="s">
         <v>92</v>
       </c>
-      <c r="C46" t="s">
-        <v>93</v>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>140</v>
+      </c>
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>150</v>
+      </c>
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>180</v>
+      </c>
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>190</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>200</v>
+      </c>
+      <c r="B89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>210</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>220</v>
+      </c>
+      <c r="B93" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>230</v>
+      </c>
+      <c r="B95" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>240</v>
+      </c>
+      <c r="B97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>250</v>
+      </c>
+      <c r="B99" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>260</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>270</v>
+      </c>
+      <c r="B103" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>280</v>
+      </c>
+      <c r="B105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>290</v>
+      </c>
+      <c r="B107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>300</v>
+      </c>
+      <c r="B109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>310</v>
+      </c>
+      <c r="B111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>320</v>
+      </c>
+      <c r="B113" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>330</v>
+      </c>
+      <c r="B115" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>340</v>
+      </c>
+      <c r="B117" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>350</v>
+      </c>
+      <c r="B119" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>360</v>
+      </c>
+      <c r="B121" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>370</v>
+      </c>
+      <c r="B123" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>380</v>
+      </c>
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>390</v>
+      </c>
+      <c r="B127" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/project1/data_structures.xlsx
+++ b/project1/data_structures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\TXSTATE UNI\Fall 2022\Artificial Intelligence\Projects\artificial_intelligence\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE21C824-A954-46D4-9D19-9C99B963A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9672D-A55D-41E2-8992-55B70F135353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FDAD4B7-6A52-43B5-89AE-0D674C76519E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="213">
   <si>
     <t>Variable Name</t>
   </si>
@@ -666,6 +666,15 @@
   </si>
   <si>
     <t>THEN PART = BRAKE LINES</t>
+  </si>
+  <si>
+    <t>Conclusion List</t>
+  </si>
+  <si>
+    <t>Variable List</t>
+  </si>
+  <si>
+    <t>Clause Variable List</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61881F8C-F8C7-4282-985C-88E013F6406E}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C1933"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1939" sqref="B1939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2178,6 +2187,9715 @@
         <v>202</v>
       </c>
     </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>30</v>
+      </c>
+      <c r="B133" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>40</v>
+      </c>
+      <c r="B134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>50</v>
+      </c>
+      <c r="B135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>60</v>
+      </c>
+      <c r="B136" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>80</v>
+      </c>
+      <c r="B138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>90</v>
+      </c>
+      <c r="B139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>100</v>
+      </c>
+      <c r="B140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>110</v>
+      </c>
+      <c r="B141" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>120</v>
+      </c>
+      <c r="B142" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>130</v>
+      </c>
+      <c r="B143" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>140</v>
+      </c>
+      <c r="B144" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>160</v>
+      </c>
+      <c r="B146" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>170</v>
+      </c>
+      <c r="B147" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>180</v>
+      </c>
+      <c r="B148" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>190</v>
+      </c>
+      <c r="B149" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>200</v>
+      </c>
+      <c r="B150" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>210</v>
+      </c>
+      <c r="B151" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>220</v>
+      </c>
+      <c r="B152" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>230</v>
+      </c>
+      <c r="B153" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>240</v>
+      </c>
+      <c r="B154" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>250</v>
+      </c>
+      <c r="B155" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>260</v>
+      </c>
+      <c r="B156" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>270</v>
+      </c>
+      <c r="B157" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>280</v>
+      </c>
+      <c r="B158" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>290</v>
+      </c>
+      <c r="B159" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>300</v>
+      </c>
+      <c r="B160" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>310</v>
+      </c>
+      <c r="B161" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>320</v>
+      </c>
+      <c r="B162" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>330</v>
+      </c>
+      <c r="B163" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>340</v>
+      </c>
+      <c r="B164" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>350</v>
+      </c>
+      <c r="B165" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>360</v>
+      </c>
+      <c r="B166" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>370</v>
+      </c>
+      <c r="B167" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>380</v>
+      </c>
+      <c r="B168" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>390</v>
+      </c>
+      <c r="B169" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>12</v>
+      </c>
+      <c r="B183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>15</v>
+      </c>
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>16</v>
+      </c>
+      <c r="B187" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>17</v>
+      </c>
+      <c r="B188" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>18</v>
+      </c>
+      <c r="B189" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>19</v>
+      </c>
+      <c r="B190" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>20</v>
+      </c>
+      <c r="B191" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>22</v>
+      </c>
+      <c r="B193" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>23</v>
+      </c>
+      <c r="B194" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>24</v>
+      </c>
+      <c r="B195" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>25</v>
+      </c>
+      <c r="B196" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>26</v>
+      </c>
+      <c r="B197" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>27</v>
+      </c>
+      <c r="B198" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>28</v>
+      </c>
+      <c r="B199" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>29</v>
+      </c>
+      <c r="B200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>30</v>
+      </c>
+      <c r="B201" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>31</v>
+      </c>
+      <c r="B202" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>32</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>33</v>
+      </c>
+      <c r="B204" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>34</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>35</v>
+      </c>
+      <c r="B206" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>36</v>
+      </c>
+      <c r="B207" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>37</v>
+      </c>
+      <c r="B208" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>38</v>
+      </c>
+      <c r="B209" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>39</v>
+      </c>
+      <c r="B210" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>40</v>
+      </c>
+      <c r="B211" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>41</v>
+      </c>
+      <c r="B212" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>42</v>
+      </c>
+      <c r="B213" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>43</v>
+      </c>
+      <c r="B214" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>44</v>
+      </c>
+      <c r="B215" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>45</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>46</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>47</v>
+      </c>
+      <c r="B264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>48</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>89</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>90</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>91</v>
+      </c>
+      <c r="B308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>92</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>133</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>134</v>
+      </c>
+      <c r="B351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>135</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>177</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>178</v>
+      </c>
+      <c r="B395" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>179</v>
+      </c>
+      <c r="B396" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>180</v>
+      </c>
+      <c r="B397" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>221</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>223</v>
+      </c>
+      <c r="B440" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>224</v>
+      </c>
+      <c r="B441" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>265</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>266</v>
+      </c>
+      <c r="B483" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>267</v>
+      </c>
+      <c r="B484" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>268</v>
+      </c>
+      <c r="B485" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>309</v>
+      </c>
+      <c r="B526" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>310</v>
+      </c>
+      <c r="B527" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>311</v>
+      </c>
+      <c r="B528" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>312</v>
+      </c>
+      <c r="B529" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>353</v>
+      </c>
+      <c r="B570" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>354</v>
+      </c>
+      <c r="B571" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>355</v>
+      </c>
+      <c r="B572" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>356</v>
+      </c>
+      <c r="B573" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>397</v>
+      </c>
+      <c r="B614" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>398</v>
+      </c>
+      <c r="B615" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>399</v>
+      </c>
+      <c r="B616" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>400</v>
+      </c>
+      <c r="B617" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>441</v>
+      </c>
+      <c r="B658" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>442</v>
+      </c>
+      <c r="B659" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>443</v>
+      </c>
+      <c r="B660" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>444</v>
+      </c>
+      <c r="B661" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>445</v>
+      </c>
+      <c r="B662" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>485</v>
+      </c>
+      <c r="B702" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>486</v>
+      </c>
+      <c r="B703" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>487</v>
+      </c>
+      <c r="B704" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>488</v>
+      </c>
+      <c r="B705" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>489</v>
+      </c>
+      <c r="B706" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>529</v>
+      </c>
+      <c r="B746" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>530</v>
+      </c>
+      <c r="B747" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>531</v>
+      </c>
+      <c r="B748" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>573</v>
+      </c>
+      <c r="B790" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>574</v>
+      </c>
+      <c r="B791" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>575</v>
+      </c>
+      <c r="B792" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>617</v>
+      </c>
+      <c r="B834" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>618</v>
+      </c>
+      <c r="B835" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>619</v>
+      </c>
+      <c r="B836" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>661</v>
+      </c>
+      <c r="B878" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>662</v>
+      </c>
+      <c r="B879" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>663</v>
+      </c>
+      <c r="B880" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>705</v>
+      </c>
+      <c r="B922" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>706</v>
+      </c>
+      <c r="B923" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>707</v>
+      </c>
+      <c r="B924" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>749</v>
+      </c>
+      <c r="B966" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>750</v>
+      </c>
+      <c r="B967" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>751</v>
+      </c>
+      <c r="B968" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1010">
+        <v>793</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1011">
+        <v>794</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1012">
+        <v>795</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1013">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1014">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1016">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1017">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1018">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1019">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1020">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1021">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1022">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1023">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1024">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1025">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1026">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1027">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1028">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1029">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1030">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1031">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1032">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1033">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1034">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1035">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1036">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1037">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1038">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1039">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1040">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1041">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1042">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1043">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1044">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1045">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1046">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1047">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1048">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1049">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1050">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1051">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1052">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1053">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1054">
+        <v>837</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1055">
+        <v>838</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1056">
+        <v>839</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1057">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1058">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1059">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1060">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1061">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1062">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1063">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1064">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1065">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1066">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1067">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1068">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1069">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1070">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1071">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1072">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1073">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1074">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1075">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1076">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1077">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1078">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1079">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1080">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1081">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1082">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1083">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1084">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1085">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1086">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1087">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1088">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1089">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1090">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1091">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1092">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1093">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1094">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1095">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1096">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1097">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1098">
+        <v>881</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1099">
+        <v>882</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1100">
+        <v>883</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1101">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1102">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1103">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1104">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1105">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1106">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1107">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1108">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1109">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1110">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1111">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1112">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1113">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1114">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1115">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1116">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1117">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1118">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1119">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1120">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1121">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1122">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1123">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1124">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1125">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1126">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1127">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1128">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1129">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1130">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1131">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1132">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1133">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1134">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1135">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1136">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1137">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1138">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1139">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1140">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1141">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1142">
+        <v>925</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1143">
+        <v>926</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1144">
+        <v>927</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1145">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1146">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1147">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1148">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1149">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1150">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1151">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1152">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1153">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1154">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1155">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1156">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1157">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1158">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1159">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1160">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1161">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1162">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1163">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1164">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1165">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1166">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1167">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1168">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1169">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1170">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1171">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1172">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1173">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1174">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1175">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1176">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1177">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1178">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1179">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1180">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1181">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1182">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1183">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1184">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1185">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1186">
+        <v>969</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1187">
+        <v>970</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1188">
+        <v>971</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1189">
+        <v>972</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1190">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1191">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1192">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1193">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1194">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1195">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1196">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1197">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1198">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1199">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1200">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1201">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1202">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1203">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1204">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1205">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1206">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1207">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1208">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1209">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1210">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1211">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1212">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1213">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1214">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1215">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1216">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1217">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1218">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1219">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1220">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1221">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1222">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1223">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1224">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1225">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1226">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1227">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1228">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1229">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1230">
+        <v>1013</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1231">
+        <v>1014</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1232">
+        <v>1015</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1233">
+        <v>1016</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1234">
+        <v>1017</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1235">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1236">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1237">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1238">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1239">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1240">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1241">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1242">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1243">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1244">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1245">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1246">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1247">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1248">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1249">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1250">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1251">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1252">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1253">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1254">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1255">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1256">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1257">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1258">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1259">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1260">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1261">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1262">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1263">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1264">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1265">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1266">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1267">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1268">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1269">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1270">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1271">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1272">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1273">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1274">
+        <v>1057</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1275">
+        <v>1058</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1276">
+        <v>1059</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1277">
+        <v>1060</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1278">
+        <v>1061</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1279">
+        <v>1062</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1280">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1281">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1282">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1283">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1284">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1285">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1286">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1287">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1288">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1289">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1290">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1291">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1292">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1293">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1294">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1295">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1296">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1297">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1298">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1299">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1300">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1301">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1302">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1303">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1304">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1305">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1306">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1307">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1308">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1309">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1310">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1311">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1312">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1313">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1314">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1315">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1316">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1317">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1318">
+        <v>1101</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1319">
+        <v>1102</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1320">
+        <v>1103</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1321">
+        <v>1104</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1322">
+        <v>1105</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1323">
+        <v>1106</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1324">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1325">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1326">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1327">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1328">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1329">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1330">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1331">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1332">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1333">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1334">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1335">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1336">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1337">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1338">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1339">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1340">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1341">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1342">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1343">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1344">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1345">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1346">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1347">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1348">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1349">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1350">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1351">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1352">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1353">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1354">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1355">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1356">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1357">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1358">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1359">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1360">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1361">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1362">
+        <v>1145</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1363">
+        <v>1146</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1364">
+        <v>1147</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1365">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1366">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1367">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1368">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1369">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1370">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1371">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1372">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1373">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1374">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1375">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1376">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1377">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1378">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1379">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1380">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1381">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1382">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1383">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1384">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1385">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1386">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1387">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1388">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1389">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1390">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1391">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1392">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1393">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1394">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1395">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1396">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1397">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1398">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1399">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1400">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1401">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1402">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1403">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1404">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1405">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1406">
+        <v>1189</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1407">
+        <v>1190</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1408">
+        <v>1191</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1409">
+        <v>1192</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1410">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1411">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1412">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1413">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1414">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1415">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1416">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1417">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1418">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1419">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1420">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1421">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1422">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1423">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1424">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1425">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1426">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1427">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1428">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1429">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1430">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1431">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1432">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1433">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1434">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1435">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1436">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1437">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1438">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1439">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1440">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1441">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1442">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1443">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1444">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1445">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1446">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1447">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1448">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1449">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1450">
+        <v>1233</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1451">
+        <v>1234</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1452">
+        <v>1235</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1453">
+        <v>1236</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1454">
+        <v>1237</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1455">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1456">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1457">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1458">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1459">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1460">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1461">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1462">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1463">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1464">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1465">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1466">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1467">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1468">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1469">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1470">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1471">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1472">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1473">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1474">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1475">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1476">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1477">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1478">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1479">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1480">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1481">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1482">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1483">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1484">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1485">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1486">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1487">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1488">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1489">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1490">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1491">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1492">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1493">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1494">
+        <v>1277</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1495">
+        <v>1278</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1496">
+        <v>1279</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1497">
+        <v>1280</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1498">
+        <v>1281</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1499">
+        <v>1282</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1500">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1501">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1502">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1503">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1504">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1505">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1506">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1507">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1508">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1509">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1510">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1511">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1512">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1513">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1514">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1515">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1516">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1517">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1518">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1519">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1520">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1521">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1522">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1523">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1524">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1525">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1526">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1527">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1528">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1529">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1530">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1531">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1532">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1533">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1534">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1535">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1536">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1537">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1538">
+        <v>1321</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1539">
+        <v>1322</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1540">
+        <v>1323</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1541">
+        <v>1324</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1542">
+        <v>1325</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1543">
+        <v>1326</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1544">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1545">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1546">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1547">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1548">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1549">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1550">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1551">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1552">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1553">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1554">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1555">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1556">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1557">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1558">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1559">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1560">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1561">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1562">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1563">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1564">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1565">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1566">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1567">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1568">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1569">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1570">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1571">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1572">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1573">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1574">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1575">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1576">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1577">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1578">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1579">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1580">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1581">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1582">
+        <v>1365</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1583">
+        <v>1366</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1584">
+        <v>1367</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1585">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1586">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1587">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1588">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1589">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1590">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1591">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1592">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1593">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1594">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1595">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1596">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1597">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1598">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1599">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1600">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1601">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1602">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1603">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1604">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1605">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1606">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1607">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1608">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1609">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1610">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1611">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1612">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1613">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1614">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1615">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1616">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1617">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1618">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1619">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1620">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1621">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1622">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1623">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1624">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1625">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1626">
+        <v>1409</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1627">
+        <v>1410</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1628">
+        <v>1411</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1629">
+        <v>1412</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1630">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1631">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1632">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1633">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1634">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1635">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1636">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1637">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1638">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1639">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1640">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1641">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1642">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1643">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1644">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1645">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1646">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1647">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1648">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1649">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1650">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1651">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1652">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1653">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1654">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1655">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1656">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1657">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1658">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1659">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1660">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1661">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1662">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1663">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1664">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1665">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1666">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1667">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1668">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1669">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1670">
+        <v>1453</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1671">
+        <v>1454</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1672">
+        <v>1455</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1673">
+        <v>1456</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1674">
+        <v>1457</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1675">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1676">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1677">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1678">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1679">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1680">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1681">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1682">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1683">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1684">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1685">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1686">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1687">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1688">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1689">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1690">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1691">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1692">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1693">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1694">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1695">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1696">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1697">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1698">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1699">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1700">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1701">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1702">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1703">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1704">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1705">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1706">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1707">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1708">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1709">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1710">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1711">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1712">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1713">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1714">
+        <v>1497</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1715">
+        <v>1498</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1716">
+        <v>1499</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1717">
+        <v>1500</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1718">
+        <v>1501</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1719">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1720">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1721">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1722">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1723">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1724">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1725">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1726">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1727">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1728">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1729">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1730">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1731">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1732">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1733">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1734">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1735">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1736">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1737">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1738">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1739">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1740">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1741">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1742">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1743">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1744">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1745">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1746">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1747">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1748">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1749">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1750">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1751">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1752">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1753">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1754">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1755">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1756">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1757">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1758">
+        <v>1541</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1759">
+        <v>1542</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1760">
+        <v>1543</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1761">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1762">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1763">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1764">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1765">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1766">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1767">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1768">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1769">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1770">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1771">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1772">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1773">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1774">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1775">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1776">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1777">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1778">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1779">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1780">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1781">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1782">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1783">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1784">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1785">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1786">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1787">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1788">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1789">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1790">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1791">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1792">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1793">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1794">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1795">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1796">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1797">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1798">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1799">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1800">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1801">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1802">
+        <v>1585</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1803">
+        <v>1586</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1804">
+        <v>1587</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1805">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1806">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1807">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1808">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1809">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1810">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1811">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1812">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1813">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1814">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1815">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1816">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1817">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1818">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1819">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1820">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1821">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1822">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1823">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1824">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1825">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1826">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1827">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1828">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1829">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1830">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1831">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1832">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1833">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1834">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1835">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1836">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1837">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1838">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1839">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1840">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1841">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1842">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1843">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1844">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1845">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1846">
+        <v>1629</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1847">
+        <v>1630</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1848">
+        <v>1631</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1849">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1850">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1851">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1852">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1853">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1854">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1855">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1856">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1857">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1858">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1859">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1860">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1861">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1862">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1863">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1864">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1865">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1866">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1867">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1868">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1869">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1870">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1871">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1872">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1873">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1874">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1875">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1876">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1877">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1878">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1879">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1880">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1881">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1882">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1883">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1884">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1885">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1886">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1887">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1888">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1889">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1890">
+        <v>1673</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1891">
+        <v>1674</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1892">
+        <v>1675</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1893">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1894">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1895">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1896">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1897">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1898">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1899">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1900">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1901">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1902">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1903">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1904">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1905">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1906">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1907">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1908">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1909">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1910">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1911">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1912">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1913">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1914">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1915">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1916">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1917">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1918">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1919">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1920">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1921">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1922">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1923">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1924">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1925">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1926">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1927">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1928">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1929">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1930">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1931">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1932">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1933">
+        <v>1716</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project1/data_structures.xlsx
+++ b/project1/data_structures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\TXSTATE UNI\Fall 2022\Artificial Intelligence\Projects\artificial_intelligence\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9672D-A55D-41E2-8992-55B70F135353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EA8908-62B7-41B2-96E6-1CBA217454B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FDAD4B7-6A52-43B5-89AE-0D674C76519E}"/>
+    <workbookView xWindow="-11415" yWindow="-11880" windowWidth="16725" windowHeight="7170" xr2:uid="{0FDAD4B7-6A52-43B5-89AE-0D674C76519E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="214">
   <si>
     <t>Variable Name</t>
   </si>
@@ -452,9 +452,6 @@
     <t>1, 5, 16, 39</t>
   </si>
   <si>
-    <t>THEN PART = FUEL</t>
-  </si>
-  <si>
     <t>IF PROBLEM = YES AND ENGINE_ROTATES = YES AND FUEL = YES</t>
   </si>
   <si>
@@ -675,6 +672,12 @@
   </si>
   <si>
     <t>Clause Variable List</t>
+  </si>
+  <si>
+    <t>THEN PART = FUEL_LEVEL</t>
+  </si>
+  <si>
+    <t>THEN PART = FUEL_CONDITION</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61881F8C-F8C7-4282-985C-88E013F6406E}">
   <dimension ref="A1:C1933"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1939" sqref="B1939"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36">
         <v>69</v>
@@ -1784,7 +1787,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1792,15 +1795,15 @@
         <v>150</v>
       </c>
       <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" t="s">
         <v>139</v>
-      </c>
-      <c r="C79" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1808,15 +1811,15 @@
         <v>160</v>
       </c>
       <c r="B81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" t="s">
         <v>142</v>
-      </c>
-      <c r="C81" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1824,15 +1827,15 @@
         <v>170</v>
       </c>
       <c r="B83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" t="s">
         <v>145</v>
-      </c>
-      <c r="C83" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1840,15 +1843,15 @@
         <v>180</v>
       </c>
       <c r="B85" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" t="s">
         <v>148</v>
-      </c>
-      <c r="C85" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1856,15 +1859,15 @@
         <v>190</v>
       </c>
       <c r="B87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
         <v>150</v>
-      </c>
-      <c r="C87" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1872,15 +1875,15 @@
         <v>200</v>
       </c>
       <c r="B89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" t="s">
         <v>153</v>
-      </c>
-      <c r="C89" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1888,15 +1891,15 @@
         <v>210</v>
       </c>
       <c r="B91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" t="s">
         <v>156</v>
-      </c>
-      <c r="C91" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1904,10 +1907,10 @@
         <v>220</v>
       </c>
       <c r="B93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" t="s">
         <v>159</v>
-      </c>
-      <c r="C93" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1920,15 +1923,15 @@
         <v>230</v>
       </c>
       <c r="B95" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" t="s">
         <v>161</v>
-      </c>
-      <c r="C95" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1936,15 +1939,15 @@
         <v>240</v>
       </c>
       <c r="B97" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" t="s">
         <v>164</v>
-      </c>
-      <c r="C97" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1952,15 +1955,15 @@
         <v>250</v>
       </c>
       <c r="B99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" t="s">
         <v>167</v>
-      </c>
-      <c r="C99" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1968,15 +1971,15 @@
         <v>260</v>
       </c>
       <c r="B101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" t="s">
         <v>170</v>
-      </c>
-      <c r="C101" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -1984,15 +1987,15 @@
         <v>270</v>
       </c>
       <c r="B103" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" t="s">
         <v>173</v>
-      </c>
-      <c r="C103" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2000,15 +2003,15 @@
         <v>280</v>
       </c>
       <c r="B105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" t="s">
         <v>176</v>
-      </c>
-      <c r="C105" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2016,10 +2019,10 @@
         <v>290</v>
       </c>
       <c r="B107" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" t="s">
         <v>179</v>
-      </c>
-      <c r="C107" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2032,15 +2035,15 @@
         <v>300</v>
       </c>
       <c r="B109" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" t="s">
         <v>182</v>
-      </c>
-      <c r="C109" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2048,15 +2051,15 @@
         <v>310</v>
       </c>
       <c r="B111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" t="s">
         <v>185</v>
-      </c>
-      <c r="C111" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2064,15 +2067,15 @@
         <v>320</v>
       </c>
       <c r="B113" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" t="s">
         <v>188</v>
-      </c>
-      <c r="C113" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2080,15 +2083,15 @@
         <v>330</v>
       </c>
       <c r="B115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" t="s">
         <v>191</v>
-      </c>
-      <c r="C115" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2096,15 +2099,15 @@
         <v>340</v>
       </c>
       <c r="B117" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" t="s">
         <v>194</v>
-      </c>
-      <c r="C117" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2112,15 +2115,15 @@
         <v>350</v>
       </c>
       <c r="B119" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" t="s">
         <v>196</v>
-      </c>
-      <c r="C119" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2128,15 +2131,15 @@
         <v>360</v>
       </c>
       <c r="B121" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" t="s">
         <v>200</v>
-      </c>
-      <c r="C121" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2144,15 +2147,15 @@
         <v>370</v>
       </c>
       <c r="B123" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" t="s">
         <v>203</v>
-      </c>
-      <c r="C123" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2160,15 +2163,15 @@
         <v>380</v>
       </c>
       <c r="B125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" t="s">
         <v>205</v>
-      </c>
-      <c r="C125" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2176,20 +2179,20 @@
         <v>390</v>
       </c>
       <c r="B127" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" t="s">
         <v>207</v>
-      </c>
-      <c r="C127" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2506,7 +2509,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -2863,7 +2866,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">

--- a/project1/data_structures.xlsx
+++ b/project1/data_structures.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\TXSTATE UNI\Fall 2022\Artificial Intelligence\Projects\artificial_intelligence\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EA8908-62B7-41B2-96E6-1CBA217454B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6258B1D0-76CE-4E54-8EF0-4C6D3424E242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11415" yWindow="-11880" windowWidth="16725" windowHeight="7170" xr2:uid="{0FDAD4B7-6A52-43B5-89AE-0D674C76519E}"/>
+    <workbookView xWindow="21435" yWindow="-13920" windowWidth="16725" windowHeight="7170" xr2:uid="{0FDAD4B7-6A52-43B5-89AE-0D674C76519E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backward Chaining" sheetId="1" r:id="rId1"/>
+    <sheet name="Forward Chaining" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="277">
   <si>
     <t>Variable Name</t>
   </si>
@@ -678,6 +679,195 @@
   </si>
   <si>
     <t>THEN PART = FUEL_CONDITION</t>
+  </si>
+  <si>
+    <t>OIL_PUMP</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>ENGINE_GASKET</t>
+  </si>
+  <si>
+    <t>TRANSMISSION_DRAIN_PLUG</t>
+  </si>
+  <si>
+    <t>BATTERY</t>
+  </si>
+  <si>
+    <t>IGNITION_SWITCH</t>
+  </si>
+  <si>
+    <t>STARTER_MOTOR</t>
+  </si>
+  <si>
+    <t>BATTERY_TERMINALS</t>
+  </si>
+  <si>
+    <t>FUEL_LEVEL</t>
+  </si>
+  <si>
+    <t>FUEL_CONDITION</t>
+  </si>
+  <si>
+    <t>FUEL_SYSTEM</t>
+  </si>
+  <si>
+    <t>ENGINE_COMPONENTS</t>
+  </si>
+  <si>
+    <t>ALTERNATOR_BELT</t>
+  </si>
+  <si>
+    <t>BATTERY_WIRES</t>
+  </si>
+  <si>
+    <t>ELECTRICAL_SYSTEM</t>
+  </si>
+  <si>
+    <t>WATER_PUMP</t>
+  </si>
+  <si>
+    <t>FUEL_TANK</t>
+  </si>
+  <si>
+    <t>FUEL_MANAGEMENT_SYSTEM</t>
+  </si>
+  <si>
+    <t>BRAKE_PARTS</t>
+  </si>
+  <si>
+    <t>BRAKE_LINES</t>
+  </si>
+  <si>
+    <t>IF OIL_PUMP = BAD</t>
+  </si>
+  <si>
+    <t>THEN REPLACE = YES</t>
+  </si>
+  <si>
+    <t>IF OIL_FILTER = BAD</t>
+  </si>
+  <si>
+    <t>IF OIL = BAD</t>
+  </si>
+  <si>
+    <t>IF OIL_DRAIN_PLUG = BAD</t>
+  </si>
+  <si>
+    <t>IF ENGINE_GASKET = BAD</t>
+  </si>
+  <si>
+    <t>IF RADIATOR = BAD</t>
+  </si>
+  <si>
+    <t>IF RADIATOR_HOSE = BAD</t>
+  </si>
+  <si>
+    <t>IF TRANSMISSION_DRAIN_PLUG = BAD</t>
+  </si>
+  <si>
+    <t>IF BATTERY = BAD</t>
+  </si>
+  <si>
+    <t>IF IGNITION_SWITCH = BAD</t>
+  </si>
+  <si>
+    <t>IF STARTER_MOTOR = BAD</t>
+  </si>
+  <si>
+    <t>IF BATTERY_TERMINALS = BAD</t>
+  </si>
+  <si>
+    <t>IF FUEL_LEVEL = EMPTY</t>
+  </si>
+  <si>
+    <t>IF FUEL_CONDITION =  BAD</t>
+  </si>
+  <si>
+    <t>IF FUEL_SYSTEM = BAD</t>
+  </si>
+  <si>
+    <t>IF VACUUM_HOSE = BAD</t>
+  </si>
+  <si>
+    <t>IF SPARK_PLUGS = BAD</t>
+  </si>
+  <si>
+    <t>IF FUEL_INJECTORS = BAD</t>
+  </si>
+  <si>
+    <t>IF IGNITION_WIRES = BAD</t>
+  </si>
+  <si>
+    <t>IF ENGINE_COMPONENTS = BAD</t>
+  </si>
+  <si>
+    <t>IF ALTERNATOR = BAD</t>
+  </si>
+  <si>
+    <t>IF ALTERNATOR_BELT = BAD</t>
+  </si>
+  <si>
+    <t>IF BATTERY_WIRES = BAD</t>
+  </si>
+  <si>
+    <t>IF ELECTRICAL_SYSTEM = BAD</t>
+  </si>
+  <si>
+    <t>IF COOLANT = BAD</t>
+  </si>
+  <si>
+    <t>IF DRIVE_BELT = BAD</t>
+  </si>
+  <si>
+    <t>IF RADIATOR_FAN = BAD</t>
+  </si>
+  <si>
+    <t>IF WATER_PUMP = BAD</t>
+  </si>
+  <si>
+    <t>IF TIRE_PRESSURE = BAD</t>
+  </si>
+  <si>
+    <t>IF AIR_FILTER = BAD</t>
+  </si>
+  <si>
+    <t>IF FUEL_TANK = BAD</t>
+  </si>
+  <si>
+    <t>IF FUEL_MANAGEMENT_SYSTEM = BAD</t>
+  </si>
+  <si>
+    <t>IF BRAKE_PARTS = BAD</t>
+  </si>
+  <si>
+    <t>IF BRAKE_LINES = BAD</t>
+  </si>
+  <si>
+    <t>Good or bad condition of the part</t>
+  </si>
+  <si>
+    <t>Good or bad connection</t>
+  </si>
+  <si>
+    <t>Is the fuel tank empty or not</t>
+  </si>
+  <si>
+    <t>REPLACE</t>
+  </si>
+  <si>
+    <t>Replace the part</t>
+  </si>
+  <si>
+    <t>RECONNECT</t>
+  </si>
+  <si>
+    <t>Reconnect the part</t>
+  </si>
+  <si>
+    <t>THEN RECONNECT = YES</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61881F8C-F8C7-4282-985C-88E013F6406E}">
   <dimension ref="A1:C1933"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11902,4 +12092,8287 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392B7494-6F32-4606-B650-6AC2826BCD23}">
+  <dimension ref="A1:C1564"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>170</v>
+      </c>
+      <c r="B75" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>190</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>210</v>
+      </c>
+      <c r="B83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>230</v>
+      </c>
+      <c r="B87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>240</v>
+      </c>
+      <c r="B89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>250</v>
+      </c>
+      <c r="B91" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>260</v>
+      </c>
+      <c r="B93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>270</v>
+      </c>
+      <c r="B95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>280</v>
+      </c>
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>290</v>
+      </c>
+      <c r="B99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>300</v>
+      </c>
+      <c r="B101" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>310</v>
+      </c>
+      <c r="B103" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>320</v>
+      </c>
+      <c r="B105" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>330</v>
+      </c>
+      <c r="B107" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>340</v>
+      </c>
+      <c r="B109" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>350</v>
+      </c>
+      <c r="B111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>360</v>
+      </c>
+      <c r="B113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>370</v>
+      </c>
+      <c r="B115" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>380</v>
+      </c>
+      <c r="B117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>39</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>77</v>
+      </c>
+      <c r="B197" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>115</v>
+      </c>
+      <c r="B235" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>153</v>
+      </c>
+      <c r="B273" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>191</v>
+      </c>
+      <c r="B311" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>229</v>
+      </c>
+      <c r="B349" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>267</v>
+      </c>
+      <c r="B387" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>305</v>
+      </c>
+      <c r="B425" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>343</v>
+      </c>
+      <c r="B463" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>381</v>
+      </c>
+      <c r="B501" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>419</v>
+      </c>
+      <c r="B539" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>457</v>
+      </c>
+      <c r="B577" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>495</v>
+      </c>
+      <c r="B615" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>533</v>
+      </c>
+      <c r="B653" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>571</v>
+      </c>
+      <c r="B691" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>609</v>
+      </c>
+      <c r="B729" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>647</v>
+      </c>
+      <c r="B767" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>685</v>
+      </c>
+      <c r="B805" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>723</v>
+      </c>
+      <c r="B843" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>761</v>
+      </c>
+      <c r="B881" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>799</v>
+      </c>
+      <c r="B919" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>837</v>
+      </c>
+      <c r="B957" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>875</v>
+      </c>
+      <c r="B995" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1010">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1011">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1012">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1013">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1014">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1015">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1016">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1017">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1018">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1019">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1020">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1021">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1022">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1023">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1024">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1025">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1026">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1027">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1028">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1029">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1030">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1031">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1033">
+        <v>913</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1034">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1035">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1036">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1037">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1038">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1039">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1040">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1041">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1042">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1043">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1044">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1045">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1046">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1047">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1049">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1050">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1051">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1052">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1053">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1054">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1055">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1056">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1057">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1058">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1059">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1060">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1061">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1062">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1063">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1064">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1065">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1066">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1067">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1068">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1069">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1070">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1071">
+        <v>951</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1072">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1073">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1074">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1075">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1076">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1077">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1078">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1079">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1080">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1081">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1082">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1083">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1084">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1085">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1086">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1087">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1088">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1089">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1090">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1091">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1092">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1093">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1094">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1095">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1096">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1097">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1098">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1099">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1100">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1101">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1102">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1103">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1104">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1105">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1106">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1107">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1108">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1109">
+        <v>989</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1110">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1111">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1112">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1113">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1114">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1115">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1116">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1117">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1118">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1119">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1120">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1121">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1122">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1123">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1124">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1125">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1126">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1127">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1128">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1129">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1130">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1131">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1132">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1133">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1134">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1135">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1136">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1137">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1138">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1139">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1140">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1141">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1142">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1143">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1144">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1145">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1146">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1147">
+        <v>1027</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1148">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1149">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1150">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1151">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1152">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1153">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1154">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1155">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1156">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1157">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1158">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1159">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1160">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1161">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1162">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1163">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1164">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1165">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1166">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1167">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1168">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1169">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1170">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1171">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1172">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1173">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1174">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1175">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1176">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1177">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1178">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1179">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1180">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1181">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1182">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1183">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1184">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1185">
+        <v>1065</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1186">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1187">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1188">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1189">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1190">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1191">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1192">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1193">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1194">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1195">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1196">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1197">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1198">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1199">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1200">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1201">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1202">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1203">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1204">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1205">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1206">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1207">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1208">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1209">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1210">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1211">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1212">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1213">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1214">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1215">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1216">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1217">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1218">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1219">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1220">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1221">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1222">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1223">
+        <v>1103</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1224">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1225">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1226">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1227">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1228">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1229">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1230">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1231">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1232">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1233">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1234">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1235">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1236">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1237">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1238">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1239">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1240">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1241">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1242">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1243">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1244">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1245">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1246">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1247">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1248">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1249">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1250">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1251">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1252">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1253">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1254">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1255">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1256">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1257">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1258">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1259">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1260">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1261">
+        <v>1141</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1262">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1263">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1264">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1265">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1266">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1267">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1268">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1269">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1270">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1271">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1272">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1273">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1274">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1275">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1276">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1277">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1278">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1279">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1280">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1281">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1282">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1283">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1284">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1285">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1286">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1287">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1288">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1289">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1290">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1291">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1292">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1293">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1294">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1295">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1296">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1297">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1298">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1299">
+        <v>1179</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1300">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1301">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1302">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1303">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1304">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1305">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1306">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1307">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1308">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1309">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1310">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1311">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1312">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1313">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1314">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1315">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1316">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1317">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1318">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1319">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1320">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1321">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1322">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1323">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1324">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1325">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1326">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1327">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1328">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1329">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1330">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1331">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1332">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1333">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1334">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1335">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1336">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1337">
+        <v>1217</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1338">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1339">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1340">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1341">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1342">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1343">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1344">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1345">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1346">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1347">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1348">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1349">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1350">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1351">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1352">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1353">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1354">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1355">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1356">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1357">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1358">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1359">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1360">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1361">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1362">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1363">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1364">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1365">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1366">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1367">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1368">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1369">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1370">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1371">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1372">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1373">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1374">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1375">
+        <v>1255</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1376">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1377">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1378">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1379">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1380">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1381">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1382">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1383">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1384">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1385">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1386">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1387">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1388">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1389">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1390">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1391">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1392">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1393">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1394">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1395">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1396">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1397">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1398">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1399">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1400">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1401">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1402">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1403">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1404">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1405">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1406">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1407">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1408">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1409">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1410">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1411">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1412">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1413">
+        <v>1293</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1414">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1415">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1416">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1417">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1418">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1419">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1420">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1421">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1422">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1423">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1424">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1425">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1426">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1427">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1428">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1429">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1430">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1431">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1432">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1433">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1434">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1435">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1436">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1437">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1438">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1439">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1440">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1441">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1442">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1443">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1444">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1445">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1446">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1447">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1448">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1449">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1450">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1451">
+        <v>1331</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1452">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1453">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1454">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1455">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1456">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1457">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1458">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1459">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1460">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1461">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1462">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1463">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1464">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1465">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1466">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1467">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1468">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1469">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1470">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1471">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1472">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1473">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1474">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1475">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1476">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1477">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1478">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1479">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1480">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1481">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1482">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1483">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1484">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1485">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1486">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1487">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1488">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1489">
+        <v>1369</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1490">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1491">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1492">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1493">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1494">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1495">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1496">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1497">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1498">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1499">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1500">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1501">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1502">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1503">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1504">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1505">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1506">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1507">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1508">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1509">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1510">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1511">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1512">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1513">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1514">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1515">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1516">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1517">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1518">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1519">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1520">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1521">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1522">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1523">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1524">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1525">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1526">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1527">
+        <v>1407</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1528">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1529">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1530">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1531">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1532">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1533">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1534">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1535">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1536">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1537">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1538">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1539">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1540">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1541">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1542">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1543">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1544">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1545">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1546">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1547">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1548">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1549">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1550">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1551">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1552">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1553">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1554">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1555">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1556">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1557">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1558">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1559">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1560">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1561">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1562">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1563">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1564">
+        <v>1444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>